--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H2">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N2">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O2">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P2">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q2">
-        <v>43.74287526310638</v>
+        <v>73.94009006086789</v>
       </c>
       <c r="R2">
-        <v>43.74287526310638</v>
+        <v>665.460810547811</v>
       </c>
       <c r="S2">
-        <v>0.04452068001586464</v>
+        <v>0.05815735992437478</v>
       </c>
       <c r="T2">
-        <v>0.04452068001586464</v>
+        <v>0.05815735992437479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H3">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N3">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O3">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P3">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q3">
-        <v>29.52052241441099</v>
+        <v>32.04572018912811</v>
       </c>
       <c r="R3">
-        <v>29.52052241441099</v>
+        <v>288.411481702153</v>
       </c>
       <c r="S3">
-        <v>0.03004543538594585</v>
+        <v>0.02520546677101317</v>
       </c>
       <c r="T3">
-        <v>0.03004543538594585</v>
+        <v>0.02520546677101318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H4">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N4">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O4">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P4">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q4">
-        <v>29.82800407340395</v>
+        <v>32.00018932152689</v>
       </c>
       <c r="R4">
-        <v>29.82800407340395</v>
+        <v>288.001703893742</v>
       </c>
       <c r="S4">
-        <v>0.03035838446550301</v>
+        <v>0.02516965460128802</v>
       </c>
       <c r="T4">
-        <v>0.03035838446550301</v>
+        <v>0.02516965460128802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H5">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N5">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O5">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P5">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q5">
-        <v>90.58145875242484</v>
+        <v>146.2394667068316</v>
       </c>
       <c r="R5">
-        <v>90.58145875242484</v>
+        <v>1316.155200361485</v>
       </c>
       <c r="S5">
-        <v>0.09219211394382776</v>
+        <v>0.1150242215476956</v>
       </c>
       <c r="T5">
-        <v>0.09219211394382776</v>
+        <v>0.1150242215476956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H6">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N6">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O6">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P6">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q6">
-        <v>61.13022903380835</v>
+        <v>63.38035329462832</v>
       </c>
       <c r="R6">
-        <v>61.13022903380835</v>
+        <v>570.423179651655</v>
       </c>
       <c r="S6">
-        <v>0.06221720336719883</v>
+        <v>0.04985163009208358</v>
       </c>
       <c r="T6">
-        <v>0.06221720336719883</v>
+        <v>0.0498516300920836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H7">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N7">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O7">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P7">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q7">
-        <v>61.76695300413887</v>
+        <v>63.29030187879666</v>
       </c>
       <c r="R7">
-        <v>61.76695300413887</v>
+        <v>569.61271690917</v>
       </c>
       <c r="S7">
-        <v>0.0628652491111288</v>
+        <v>0.0497808004163568</v>
       </c>
       <c r="T7">
-        <v>0.0628652491111288</v>
+        <v>0.0497808004163568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H8">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N8">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O8">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P8">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q8">
-        <v>282.5742484740035</v>
+        <v>461.0919775921478</v>
       </c>
       <c r="R8">
-        <v>282.5742484740035</v>
+        <v>4149.82779832933</v>
       </c>
       <c r="S8">
-        <v>0.2875987831473231</v>
+        <v>0.3626705360649859</v>
       </c>
       <c r="T8">
-        <v>0.2875987831473231</v>
+        <v>0.3626705360649859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H9">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N9">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O9">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P9">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q9">
-        <v>190.6993855716602</v>
+        <v>199.8377941277323</v>
       </c>
       <c r="R9">
-        <v>190.6993855716602</v>
+        <v>1798.54014714959</v>
       </c>
       <c r="S9">
-        <v>0.1940902666592329</v>
+        <v>0.1571818280179576</v>
       </c>
       <c r="T9">
-        <v>0.1940902666592329</v>
+        <v>0.1571818280179576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H10">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N10">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O10">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P10">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q10">
-        <v>192.6856838702258</v>
+        <v>199.5538626669178</v>
       </c>
       <c r="R10">
-        <v>192.6856838702258</v>
+        <v>1795.98476400226</v>
       </c>
       <c r="S10">
-        <v>0.1961118839039749</v>
+        <v>0.1569585025642444</v>
       </c>
       <c r="T10">
-        <v>0.1961118839039749</v>
+        <v>0.1569585025642444</v>
       </c>
     </row>
   </sheetData>
